--- a/src/main/resources/jobs.xlsx
+++ b/src/main/resources/jobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12210"/>
+    <workbookView windowWidth="22368" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>eclipse</t>
   </si>
   <si>
-    <t>C:\Program Files\Eclipse\jee-2020-06\eclipse\eclipse.exe</t>
+    <t>D:\VSCode\Code.exe</t>
   </si>
 </sst>
 </file>
@@ -106,11 +106,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,46 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,17 +200,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,17 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,35 +238,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,25 +252,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,157 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +443,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,38 +527,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,39 +543,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,145 +551,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,18 +1057,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="20.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="20.3796296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="83.75" customWidth="1"/>
-    <col min="7" max="7" width="40.375" customWidth="1"/>
+    <col min="7" max="7" width="40.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1102,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1139,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
@@ -1157,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
@@ -1200,7 +1200,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1217,7 +1217,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
